--- a/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Дима/Анализ/Лаб5 данные.xlsx
+++ b/Файлы/1 курс/Основы программной инженерии/1 семестр/Лабораторные работы/Лабораторная работа 5/Дима/Анализ/Лаб5 данные.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\Desktop\VSCode\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Дима\Анализ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\git\Codespace\Файлы\1 курс\Основы программной инженерии\1 семестр\Лабораторные работы\Лабораторная работа 5\Дима\Анализ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A0750-A1BE-4288-9FB0-22870EFAC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98916EA6-7D74-4E5F-8029-AA2D0F753F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="0" windowWidth="21585" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сложение" sheetId="1" r:id="rId1"/>
@@ -479,11 +479,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -782,52 +782,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5.4731369018554601E-3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>5.58066368103027E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>6.3700675964355399E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>5.9418678283691398E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>5.5708885192870998E-3</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -839,129 +839,129 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3.6501884460449198E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3.5745620727539E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3.6230802536010701E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3.5801172256469699E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3.5798788070678697E-2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I20" si="0">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="I4:I18" si="0">AVERAGE(B4:F4)</f>
         <v>3.6015653610229459E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5.7352781295776298E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>5.70883750915527E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>5.9976816177368102E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>5.6939363479614202E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>5.8556079864501898E-2</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -973,22 +973,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.37003183364868097</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.36518597602844199</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.37267613410949701</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.370780229568481</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.36624407768249501</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1000,102 +1000,102 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.577892065048217</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.57378172874450595</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.57675886154174805</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.57436180114746005</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.57406306266784601</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1107,22 +1107,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>3.6866712570190399</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>3.7081708908081001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>3.6756060123443599</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>3.7364151477813698</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>3.74011874198913</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1134,112 +1134,112 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>6.5217018127441398E-3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>5.3830146789550703E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>5.7253837585449201E-3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>5.3107738494873004E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>5.5673122406005799E-3</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1251,22 +1251,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>5.4383516311645501E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>5.4810762405395501E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>5.5108785629272398E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>5.5044412612914997E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>5.4379940032958901E-2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1278,102 +1278,102 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1000000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1000000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1000000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1000000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>-7248.0523274214702</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>19109.425026326</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>-109389.611736962</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>114230.18050908</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>37967.208301498402</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>7.4301481246948201E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>5.8762788772583001E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>5.9251308441162102E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>5.9433698654174798E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>5.9130907058715799E-2</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -1385,22 +1385,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.538577079772949</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.54755592346191395</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.550312519073486</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.54837632179260198</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.549549341201782</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -1412,102 +1412,102 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10000000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>-47291.122693730402</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>-145890.927188715</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>60878.434801318901</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>16125.208976699199</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>-359673.65315832902</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.62865519523620605</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.63508701324462802</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.62226748466491699</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.61865758895874001</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.64194774627685502</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1519,22 +1519,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>5.4349224567413303</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>5.36744809150695</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>5.3420066833495996</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>5.3421545028686497</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>5.5106463432312003</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -1546,62 +1546,62 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100000000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>100000000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>100000000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>100000000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>-127132.75871457699</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>291116.38150953001</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>-1055408.48948399</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>346881.70499122201</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>281195.05381590402</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1632,35 +1632,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1"/>
@@ -1668,22 +1668,22 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2.0648717880248999E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>6.0198307037353498E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5.2549839019775304E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>5.3417682647705E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>5.3224563598632804E-3</v>
       </c>
       <c r="G3" s="1"/>
@@ -1696,22 +1696,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5.0909996032714802E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5.06339073181152E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4.9836635589599602E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5.0188064575195299E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>4.9470663070678697E-2</v>
       </c>
       <c r="G4" s="1"/>
@@ -1719,27 +1719,27 @@
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I20" si="0">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="I4:I18" si="0">AVERAGE(B4:F4)</f>
         <v>5.0207853317260721E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1000000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1000000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1000000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1000000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1000000</v>
       </c>
       <c r="G5" s="1"/>
@@ -1747,22 +1747,22 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>405994</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>557883</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>446330</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>587459</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>496831</v>
       </c>
       <c r="G6" s="1"/>
@@ -1770,22 +1770,22 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1"/>
@@ -1804,22 +1804,22 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1"/>
@@ -1827,22 +1827,22 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5.7023763656616197E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>5.7894468307495103E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>5.7058095932006801E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>5.7532787322997998E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>5.6907176971435498E-2</v>
       </c>
       <c r="G10" s="1"/>
@@ -1855,22 +1855,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.49728918075561501</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.49578499794006298</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.49676847457885698</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.496505737304687</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.50126910209655695</v>
       </c>
       <c r="G11" s="1"/>
@@ -1883,22 +1883,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10000000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>10000000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>10000000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>10000000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>10000000</v>
       </c>
       <c r="G12" s="1"/>
@@ -1906,22 +1906,22 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>5200100</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4928913</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>5360018</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>4680212</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>5400468</v>
       </c>
       <c r="G13" s="1"/>
@@ -1929,22 +1929,22 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1"/>
@@ -1963,22 +1963,22 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
@@ -1986,22 +1986,22 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.57755494117736805</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.57578563690185502</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.57931327819824197</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.57752990722656194</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.57838678359985296</v>
       </c>
       <c r="G17" s="1"/>
@@ -2014,22 +2014,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>4.9557304382324201</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>4.9724781513214102</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>4.9827527999877903</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>4.9666125774383501</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>5.0518007278442303</v>
       </c>
       <c r="G18" s="1"/>
@@ -2042,22 +2042,22 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>100000000</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>100000000</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>100000000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>100000000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>100000000</v>
       </c>
       <c r="G19" s="1"/>
@@ -2065,22 +2065,22 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>50755944</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>49622240</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>49774131</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>50237525</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>49334342</v>
       </c>
       <c r="G20" s="1"/>
@@ -2088,22 +2088,22 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="1"/>
@@ -2133,35 +2133,35 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="1"/>
@@ -2169,22 +2169,22 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>5.5134296417236302E-3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>5.5003166198730399E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>6.0639381408691398E-3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>5.5069923400878898E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>6.0272216796875E-3</v>
       </c>
       <c r="G26" s="1"/>
@@ -2197,22 +2197,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>6.4476490020751898E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>6.3987255096435505E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>6.3992023468017495E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>6.30161762237548E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>6.62205219268798E-2</v>
       </c>
       <c r="G27" s="1"/>
@@ -2225,22 +2225,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1000000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1000000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1000000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1000000</v>
       </c>
       <c r="G28" s="1"/>
@@ -2248,22 +2248,22 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>-72067.809217587797</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>24336.4267317995</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>-20667.404192346799</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>4157.3809771152401</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>45549.796911870697</v>
       </c>
       <c r="G29" s="1"/>
@@ -2271,22 +2271,22 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="1"/>
@@ -2305,22 +2305,22 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="1"/>
@@ -2328,22 +2328,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>5.8949708938598598E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>5.8768272399902302E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>5.9357881546020501E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>6.0245752334594699E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>5.9215545654296799E-2</v>
       </c>
       <c r="G33" s="1"/>
@@ -2356,22 +2356,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.63739371299743597</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.64127802848815896</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.63789892196655196</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.636679887771606</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.63659262657165505</v>
       </c>
       <c r="G34" s="1"/>
@@ -2384,22 +2384,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10000000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
       <c r="G35" s="1"/>
@@ -2407,22 +2407,22 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>-148260.959735829</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>-231340.98913339499</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>-203768.73459054701</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>-180967.63085825401</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>-9524.3771215084598</v>
       </c>
       <c r="G36" s="1"/>
@@ -2430,22 +2430,22 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G37" s="1"/>
@@ -2464,22 +2464,22 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="1"/>
@@ -2487,22 +2487,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.59644174575805597</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.62660408020019498</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.595553398132324</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.60175418853759699</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.60164213180541903</v>
       </c>
       <c r="G40" s="1"/>
@@ -2515,22 +2515,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>6.5939953327178902</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>6.4346284866332999</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>6.3817198276519704</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>6.6487324237823398</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>6.4041149616241402</v>
       </c>
       <c r="G41" s="1"/>
@@ -2543,22 +2543,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100000000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>100000000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>100000000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>100000000</v>
       </c>
       <c r="G42" s="1"/>
@@ -2566,22 +2566,22 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>137515.745778941</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>579103.82180315896</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>-570646.97027266899</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>159835.46786233599</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>122805.56854947</v>
       </c>
       <c r="G43" s="1"/>
@@ -2589,22 +2589,22 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G44" s="1"/>
@@ -2640,84 +2640,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5.0425529479980404E-4</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
@@ -2728,42 +2728,42 @@
         <f>AVERAGE(B3:F3)</f>
         <v>1.008510589599608E-4</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>5.0425529479980404E-4</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2.0031929016113199E-3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.9242763519287101E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.0034313201904201E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2.93326377868652E-3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>2.99668312072753E-3</v>
       </c>
       <c r="G4" s="1"/>
@@ -2771,148 +2771,148 @@
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I20" si="0">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="I4:I18" si="0">AVERAGE(B4:F4)</f>
         <v>2.3721694946289003E-3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>2.0031929016113199E-3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>1.9242763519287101E-3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>2.0034313201904201E-3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>2.93326377868652E-3</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>2.99668312072753E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>45</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>45</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>45</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>45</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>45</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>45</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>45</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>45</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>45</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>268435456</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>134217728</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2097152</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>4194304</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>33554432</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>268435456</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>134217728</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>2097152</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>4194304</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>33554432</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2934,63 +2934,63 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
@@ -3001,42 +3001,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2.1214485168457001E-3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.80029869079589E-3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1.83606147766113E-3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.0570755004882799E-3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>2.7105808258056602E-3</v>
       </c>
       <c r="G11" s="1"/>
@@ -3047,145 +3047,145 @@
         <f t="shared" si="0"/>
         <v>2.1050930023193319E-3</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>2.1214485168457001E-3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>1.80029869079589E-3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>1.83606147766113E-3</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>2.0570755004882799E-3</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>2.7105808258056602E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>46</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>46</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>46</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>46</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>46</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>46</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>46</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>46</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>46</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>-2147483648</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>131072</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>2097152</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>67108864</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>-2147483648</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>131072</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>2097152</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <v>67108864</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3207,63 +3207,63 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
@@ -3274,42 +3274,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>2.0043849945068299E-3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2.8116703033447201E-3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2.91681289672851E-3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>3.00478935241699E-3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>2.7995109558105399E-3</v>
       </c>
       <c r="G18" s="1"/>
@@ -3320,145 +3320,145 @@
         <f t="shared" si="0"/>
         <v>2.7074337005615181E-3</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>2.0043849945068299E-3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>2.8116703033447201E-3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>2.91681289672851E-3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>3.00478935241699E-3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>2.7995109558105399E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>50</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>50</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>50</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>50</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>50</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>50</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>50</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>50</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>50</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>268435456</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>67108864</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
         <v>33554432</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <v>268435456</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>67108864</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
         <v>33554432</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3485,35 +3485,35 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1"/>
@@ -3521,22 +3521,22 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>2.2654533386230399E-2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>6.4394474029540998E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>5.4666996002197196E-3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>5.5344104766845703E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>6.4799785614013602E-3</v>
       </c>
       <c r="G26" s="1"/>
@@ -3549,22 +3549,22 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>6.8561077117919894E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>6.3202381134033203E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>6.7928552627563393E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>6.36138916015625E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>6.2698125839233398E-2</v>
       </c>
       <c r="G27" s="1"/>
@@ -3577,22 +3577,22 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1000000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1000000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1000000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1000000</v>
       </c>
       <c r="G28" s="1"/>
@@ -3600,22 +3600,22 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1.00000042894582</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1.00000013967053</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1.0000004150335999</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>0.999999691142058</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>1.0000009333022599</v>
       </c>
       <c r="G29" s="1"/>
@@ -3623,22 +3623,22 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="1"/>
@@ -3657,22 +3657,22 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="1"/>
@@ -3680,22 +3680,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>5.93400001525878E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>6.0523033142089802E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>5.9692859649658203E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>6.0545206069946199E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>6.0221910476684501E-2</v>
       </c>
       <c r="G33" s="1"/>
@@ -3708,22 +3708,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.63487625122070301</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.62904191017150801</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.63209605216979903</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.63102459907531705</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.62842869758605902</v>
       </c>
       <c r="G34" s="1"/>
@@ -3736,22 +3736,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10000000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
       <c r="G35" s="1"/>
@@ -3759,22 +3759,22 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1.00000138573316</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>1.00000090893986</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>1.0000020868911299</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>1.0000005990418199</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.999999083681402</v>
       </c>
       <c r="G36" s="1"/>
@@ -3782,22 +3782,22 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G37" s="1"/>
@@ -3816,22 +3816,22 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="1"/>
@@ -3839,22 +3839,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.62619686126708896</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.63723707199096602</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.63086867332458496</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.60010457038879395</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.59998798370361295</v>
       </c>
       <c r="G40" s="1"/>
@@ -3867,22 +3867,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>6.4582223892211896</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>6.3021287918090803</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>6.3069360256194997</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>6.4830610752105704</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>6.3292696475982604</v>
       </c>
       <c r="G41" s="1"/>
@@ -3895,22 +3895,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100000000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>100000000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>100000000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>100000000</v>
       </c>
       <c r="G42" s="1"/>
@@ -3918,22 +3918,22 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>0.99999802974337404</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>1.0000012151692399</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>0.99999522152090603</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>0.99999302432282999</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>1.00000458075781</v>
       </c>
       <c r="G43" s="1"/>
@@ -3941,22 +3941,22 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G44" s="1"/>
@@ -3991,35 +3991,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1"/>
@@ -4027,22 +4027,22 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
@@ -4055,22 +4055,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>5.035400390625E-4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
@@ -4078,27 +4078,27 @@
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I20" si="0">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="I4:I18" si="0">AVERAGE(B4:F4)</f>
         <v>1.0070800781249999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
@@ -4106,22 +4106,22 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.01</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.3495276653171301E-3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1.6666666666666601E-2</v>
       </c>
       <c r="G6" s="1"/>
@@ -4129,22 +4129,22 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G7" s="1"/>
@@ -4163,27 +4163,27 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>34</v>
@@ -4194,14 +4194,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>34</v>
@@ -4212,40 +4212,40 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4262,27 +4262,27 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>34</v>
@@ -4293,14 +4293,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>34</v>
@@ -4311,40 +4311,40 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -4372,35 +4372,35 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="1"/>
@@ -4408,22 +4408,22 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>5.6860446929931597E-3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>6.1972141265869097E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>6.5858364105224601E-3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>6.1650276184081997E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>6.50787353515625E-3</v>
       </c>
       <c r="G26" s="1"/>
@@ -4436,22 +4436,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>9.5238447189330999E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>9.4683170318603502E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>9.3650817871093694E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>9.4255208969116197E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>9.3978643417358398E-2</v>
       </c>
       <c r="G27" s="1"/>
@@ -4464,22 +4464,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1000000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1000000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1000000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1000000</v>
       </c>
       <c r="G28" s="1"/>
@@ -4487,22 +4487,22 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1.0000003086118101</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.99999952924421298</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1.00000002008297</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1.0000003775616899</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0.99999998920538702</v>
       </c>
       <c r="G29" s="1"/>
@@ -4510,22 +4510,22 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="1"/>
@@ -4544,22 +4544,22 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="1"/>
@@ -4567,22 +4567,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>6.1867475509643499E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>6.2329292297363198E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>6.03775978088378E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>6.0890913009643499E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>5.9848785400390597E-2</v>
       </c>
       <c r="G33" s="1"/>
@@ -4595,22 +4595,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.95571494102478005</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.95762634277343694</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.94823956489562899</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.94035625457763605</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.94274044036865201</v>
       </c>
       <c r="G34" s="1"/>
@@ -4623,22 +4623,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10000000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
       <c r="G35" s="1"/>
@@ -4646,22 +4646,22 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1.0000012549447299</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>1.0000027243973</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>1.0000001339787801</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>1.0000027064216299</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.99999547389716903</v>
       </c>
       <c r="G36" s="1"/>
@@ -4669,22 +4669,22 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="1"/>
@@ -4703,22 +4703,22 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1"/>
@@ -4726,22 +4726,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.62726712226867598</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.65165138244628895</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.59913921356201105</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.60239362716674805</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.61912512779235795</v>
       </c>
       <c r="G40" s="1"/>
@@ -4754,22 +4754,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>9.5825507640838605</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>9.4959816932678205</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>9.5271542072296107</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>9.5141241550445503</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>9.6154985427856392</v>
       </c>
       <c r="G41" s="1"/>
@@ -4782,22 +4782,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100000000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>100000000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>100000000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>100000000</v>
       </c>
       <c r="G42" s="1"/>
@@ -4805,22 +4805,22 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>1.0000126134635099</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>1.00000240406998</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>1.00000712034151</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>1.0000054801529099</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>1.00000251381606</v>
       </c>
       <c r="G43" s="1"/>
@@ -4828,22 +4828,22 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G44" s="1"/>
@@ -4877,35 +4877,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
@@ -4913,22 +4913,22 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.3561592102050699</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.34479284286499</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1.36597299575805</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.3491125106811499</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1.3740937709808301</v>
       </c>
       <c r="G3" s="1"/>
@@ -4941,22 +4941,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>8.0029964447021398E-3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.37197971343994E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.0022878646850499E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.00164413452148E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>7.0133209228515599E-3</v>
       </c>
       <c r="G4" s="1"/>
@@ -4964,27 +4964,27 @@
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I20" si="0">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="I4:I18" si="0">AVERAGE(B4:F4)</f>
         <v>9.7550868988036804E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>100000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>100000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>100000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>100000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>100000</v>
       </c>
       <c r="G5" s="1"/>
@@ -4992,22 +4992,22 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1"/>
@@ -5015,22 +5015,22 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="1"/>
@@ -5049,22 +5049,22 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1"/>
@@ -5072,22 +5072,22 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>13.5399689674377</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>13.7602319717407</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>13.6271214485168</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>13.852463722229</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>13.740201711654599</v>
       </c>
       <c r="G10" s="1"/>
@@ -5100,22 +5100,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>8.0197334289550698E-2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>7.9994201660156194E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>8.9719533920288003E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>8.5132360458373996E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>8.49630832672119E-2</v>
       </c>
       <c r="G11" s="1"/>
@@ -5128,22 +5128,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1000000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1000000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1000000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1000000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1000000</v>
       </c>
       <c r="G12" s="1"/>
@@ -5151,22 +5151,22 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="1"/>
@@ -5174,22 +5174,22 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="1"/>
@@ -5208,27 +5208,27 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>34</v>
@@ -5239,14 +5239,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>34</v>
@@ -5257,40 +5257,40 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -5318,35 +5318,35 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1"/>
@@ -5354,22 +5354,22 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1.6031026840209898E-2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>4.0028095245361302E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>1.32718086242675E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>5.0134658813476502E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>5.0103664398193299E-3</v>
       </c>
       <c r="G26" s="1"/>
@@ -5382,22 +5382,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.12801122665405201</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.124943017959594</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>0.11070966720581001</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.11000633239745999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>9.9922418594360296E-2</v>
       </c>
       <c r="G27" s="1"/>
@@ -5410,22 +5410,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1000000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1000000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1000000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1000000</v>
       </c>
       <c r="G28" s="1"/>
@@ -5433,22 +5433,22 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="1"/>
@@ -5456,22 +5456,22 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G30" s="1"/>
@@ -5490,22 +5490,22 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="1"/>
@@ -5513,22 +5513,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>6.0557365417480399E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>6.4026355743408203E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>6.5039396286010701E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>6.4920663833618095E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>6.4929962158203097E-2</v>
       </c>
       <c r="G33" s="1"/>
@@ -5541,22 +5541,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1.02465343475341</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1.1900103092193599</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1.3900742530822701</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>1.3651165962219201</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>1.4748249053955</v>
       </c>
       <c r="G34" s="1"/>
@@ -5569,22 +5569,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10000000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
       <c r="G35" s="1"/>
@@ -5592,22 +5592,22 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="1"/>
@@ -5615,22 +5615,22 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G37" s="1"/>
@@ -5649,22 +5649,22 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="1"/>
@@ -5672,22 +5672,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.64488554000854403</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.59007000923156705</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.60214376449584905</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.59107398986816395</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.59175348281860296</v>
       </c>
       <c r="G40" s="1"/>
@@ -5700,22 +5700,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>13.0999722480773</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>11.3854529857635</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>11.952524423599201</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>11.460871219635001</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>12.0254049301147</v>
       </c>
       <c r="G41" s="1"/>
@@ -5728,22 +5728,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100000000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>100000000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>100000000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>100000000</v>
       </c>
       <c r="G42" s="1"/>
@@ -5751,22 +5751,22 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="1"/>
@@ -5774,22 +5774,22 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G44" s="1"/>
@@ -5810,7 +5810,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5823,35 +5823,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1"/>
@@ -5859,22 +5859,22 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.32790255546569802</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.32809138298034601</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.32894659042358398</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.33210849761962802</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.33738398551940901</v>
       </c>
       <c r="G3" s="1"/>
@@ -5887,22 +5887,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5.9893846511840799E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5.9707403182983398E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>5.5111408233642502E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5.6808233261108398E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>5.9838771820068297E-2</v>
       </c>
       <c r="G4" s="1"/>
@@ -5915,22 +5915,22 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1000000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1000000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1000000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1000000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1000000</v>
       </c>
       <c r="G5" s="1"/>
@@ -5938,22 +5938,22 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1"/>
@@ -5961,22 +5961,22 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="1"/>
@@ -5995,22 +5995,22 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1"/>
@@ -6018,22 +6018,22 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3.3638510704040501</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3.3311870098114</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>3.34163093566894</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3.3175845146179199</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3.3776056766510001</v>
       </c>
       <c r="G10" s="1"/>
@@ -6046,22 +6046,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.61630892753600997</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.57521533966064398</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.616152763366699</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.58462309837341297</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.61623120307922297</v>
       </c>
       <c r="G11" s="1"/>
@@ -6074,22 +6074,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10000000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>10000000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>10000000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>10000000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>10000000</v>
       </c>
       <c r="G12" s="1"/>
@@ -6097,22 +6097,22 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1"/>
@@ -6120,22 +6120,22 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G14" s="1"/>
@@ -6154,22 +6154,22 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1"/>
@@ -6177,22 +6177,22 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>34.5347065925598</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>33.025953769683802</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>33.380423307418802</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>33.589549064636202</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>33.864128112792898</v>
       </c>
       <c r="G17" s="1"/>
@@ -6205,22 +6205,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>5.94032406806945</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>5.8289382457733101</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>5.8497455120086599</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>5.7967207431793204</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>5.9319207668304399</v>
       </c>
       <c r="G18" s="1"/>
@@ -6233,22 +6233,22 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>100000000</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>100000000</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>100000000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>100000000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>100000000</v>
       </c>
       <c r="G19" s="1"/>
@@ -6256,22 +6256,22 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1"/>
@@ -6279,22 +6279,22 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="1"/>
@@ -6324,35 +6324,35 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="1"/>
@@ -6360,22 +6360,22 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4.5104026794433498E-3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>4.0068626403808498E-3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>1.0992288589477499E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>4.0032863616943299E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>6.0133934020995998E-3</v>
       </c>
       <c r="G26" s="1"/>
@@ -6388,22 +6388,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.10770821571350001</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.10994148254394499</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>0.111027002334594</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.107836961746215</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0.110108375549316</v>
       </c>
       <c r="G27" s="1"/>
@@ -6416,22 +6416,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1000000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1000000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1000000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1000000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1000000</v>
       </c>
       <c r="G28" s="1"/>
@@ -6439,22 +6439,22 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1"/>
@@ -6462,22 +6462,22 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G30" s="1"/>
@@ -6496,22 +6496,22 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="1"/>
@@ -6519,22 +6519,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>5.4872035980224602E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>5.0015449523925698E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>5.8229446411132799E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>5.7974100112914997E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>5.8075666427612298E-2</v>
       </c>
       <c r="G33" s="1"/>
@@ -6547,22 +6547,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1.0701515674591</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1.0846855640411299</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1.0799171924591</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>1.1200470924377399</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>1.07072877883911</v>
       </c>
       <c r="G34" s="1"/>
@@ -6575,22 +6575,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10000000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
       <c r="G35" s="1"/>
@@ -6598,22 +6598,22 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1"/>
@@ -6621,22 +6621,22 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G37" s="1"/>
@@ -6655,22 +6655,22 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="1"/>
@@ -6678,22 +6678,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.62504625320434504</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.63852357864379805</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.61199784278869596</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.59868240356445301</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.606916904449462</v>
       </c>
       <c r="G40" s="1"/>
@@ -6706,22 +6706,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>11.000139951705901</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>10.8079712390899</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>10.9411988258361</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>10.767187118530201</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>11.2628107070922</v>
       </c>
       <c r="G41" s="1"/>
@@ -6734,22 +6734,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100000000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>100000000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>100000000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>100000000</v>
       </c>
       <c r="G42" s="1"/>
@@ -6757,22 +6757,22 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1"/>
@@ -6780,22 +6780,22 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G44" s="1"/>
